--- a/app/public/files/template.xlsx
+++ b/app/public/files/template.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomohide\morian\app\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\morian\app\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE772A-9985-49C3-B73C-203415DC0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485B025C-D0FB-4907-A758-3E2451A17F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="840" windowWidth="20160" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="発注書" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発注書!$A$1:$Q$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発注書!$A$1:$P$32</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>発注日付</t>
     <rPh sb="0" eb="2">
@@ -330,19 +342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>納期回答欄</t>
-    <rPh sb="0" eb="2">
-      <t>ノウキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>寸法(長さ・厚み・幅）</t>
     <rPh sb="0" eb="2">
       <t>スンポウ</t>
@@ -355,6 +354,20 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望納期</t>
+    <rPh sb="0" eb="4">
+      <t>キボウノウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -363,12 +376,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="[$¥-411]#,##0.00;[$¥-411]#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="[$¥-411]#,##0;[$¥-411]#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -406,12 +420,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="HG明朝E"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -428,16 +436,16 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="HG明朝E"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="HG明朝E"/>
-      <family val="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -449,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -753,131 +761,78 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,46 +848,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -944,56 +866,128 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,197 +995,141 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1227,10 +1165,10 @@
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1294,10 +1232,10 @@
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>809625</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1613,513 +1551,508 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet75"/>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="3.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="L1" s="16"/>
-      <c r="O1" s="1" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="K1" s="5"/>
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="65" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.15">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="O2" s="37" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="N2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="77" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="16"/>
-      <c r="O4" s="2" t="s">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="5"/>
+      <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="81"/>
-      <c r="D5" s="89" t="s">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="73"/>
+      <c r="D5" s="78" t="s">
         <v>3</v>
       </c>
+      <c r="N5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="O5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="82"/>
-      <c r="D6" s="78"/>
+    <row r="6" spans="1:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="74"/>
+      <c r="D6" s="70"/>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="N6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="O6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:17" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+    <row r="8" spans="1:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="53"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="88"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="68"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="92"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="92"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="92"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="92"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="92"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="92"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="92"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="92"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="92"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="92"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="92"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="94"/>
+    </row>
+    <row r="24" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="95">
+        <f>SUM(O10:P23)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="96"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="40"/>
-    </row>
-    <row r="10" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-    </row>
-    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
-    </row>
-    <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
-    </row>
-    <row r="13" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-    </row>
-    <row r="14" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-    </row>
-    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="96"/>
-    </row>
-    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
-    </row>
-    <row r="17" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="96"/>
-    </row>
-    <row r="18" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="96"/>
-    </row>
-    <row r="19" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="96"/>
-    </row>
-    <row r="20" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96"/>
-    </row>
-    <row r="21" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
-    </row>
-    <row r="22" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="96"/>
-    </row>
-    <row r="23" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="98"/>
-    </row>
-    <row r="24" spans="1:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="100"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="49"/>
-      <c r="Q25" s="27"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="44"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="45"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="47"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="46"/>
-      <c r="Q26" s="27"/>
-    </row>
-    <row r="27" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="5" t="s">
+      <c r="K26" s="45"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="75"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="28"/>
-    </row>
-    <row r="28" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="50"/>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="P28" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="Q29" s="73"/>
-    </row>
-    <row r="30" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P29" s="79"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>21</v>
       </c>
@@ -2129,86 +2062,75 @@
       <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="Q30" s="73"/>
-    </row>
-    <row r="31" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="Q31" s="73"/>
-    </row>
-    <row r="32" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="L32" s="16"/>
-      <c r="Q32" s="4" t="s">
+      <c r="K30" s="5"/>
+      <c r="P30" s="80"/>
+    </row>
+    <row r="31" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P31" s="81"/>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="5"/>
+      <c r="P32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
+  <mergeCells count="79">
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="A25:B27"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A25:B27"/>
-    <mergeCell ref="Q29:Q31"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
@@ -2225,7 +2147,6 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C13:D13"/>
@@ -2238,22 +2159,22 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M25:P27"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="C25:E26"/>
-    <mergeCell ref="G25:K26"/>
-    <mergeCell ref="L25:M27"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="K25:L27"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -2277,10 +2198,10 @@
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2299,10 +2220,10 @@
                     <xdr:rowOff>161925</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>123825</xdr:colOff>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>809625</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/app/public/files/template.xlsx
+++ b/app/public/files/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\morian\app\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485B025C-D0FB-4907-A758-3E2451A17F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA32A145-35FD-44FB-A3FF-B35F5835C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="発注書" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="184" formatCode="[$¥-411]#,##0;[$¥-411]#,##0"/>
+    <numFmt numFmtId="177" formatCode="[$¥-411]#,##0;[$¥-411]#,##0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -832,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,9 +887,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -899,9 +896,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -911,9 +905,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -925,9 +916,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -959,172 +947,175 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1554,7 +1545,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L15" sqref="L15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1574,30 +1565,30 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="K1" s="5"/>
       <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.15">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
       <c r="N2" s="11" t="s">
         <v>26</v>
       </c>
@@ -1605,10 +1596,10 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="69" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="77" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -1617,10 +1608,10 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="70"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="5"/>
       <c r="N4" s="2" t="s">
         <v>4</v>
@@ -1628,8 +1619,8 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="73"/>
-      <c r="D5" s="78" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -1640,8 +1631,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="74"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="65"/>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1662,14 +1653,14 @@
     </row>
     <row r="8" spans="1:16" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
@@ -1679,363 +1670,363 @@
       <c r="G9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="53"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="53"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="53"/>
+      <c r="P9" s="63"/>
     </row>
     <row r="10" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="88"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="16"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="36"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="90"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="67"/>
     </row>
     <row r="11" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="23"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="20"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="20"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="92"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="61"/>
     </row>
     <row r="18" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="92"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="61"/>
     </row>
     <row r="20" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="61"/>
     </row>
     <row r="21" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="92"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="92"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="61"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
     </row>
     <row r="24" spans="1:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="97" t="s">
+      <c r="B24" s="74"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="95">
+      <c r="O24" s="58">
         <f>SUM(O10:P23)</f>
         <v>0</v>
       </c>
-      <c r="P24" s="96"/>
+      <c r="P24" s="59"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="84" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="42" t="s">
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="44"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="46"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="48"/>
     </row>
     <row r="27" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="50"/>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="48"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="49"/>
       <c r="L27" s="50"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
       <c r="P27" s="50"/>
     </row>
     <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2050,7 +2041,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="P29" s="79"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
@@ -2063,10 +2054,10 @@
         <v>23</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="P30" s="80"/>
+      <c r="P30" s="52"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="P31" s="81"/>
+      <c r="P31" s="53"/>
     </row>
     <row r="32" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K32" s="5"/>
@@ -2096,41 +2087,34 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C24:M24"/>
-    <mergeCell ref="A25:B27"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="M25:P27"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="K25:L27"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
@@ -2147,34 +2131,41 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="M25:P27"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C25:E26"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="K25:L27"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C24:M24"/>
+    <mergeCell ref="A25:B27"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
